--- a/학습자료/단답형/국어_기출의지혜.xlsx
+++ b/학습자료/단답형/국어_기출의지혜.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\Private-Quizlet\학습자료\단답형\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\PycharmProjects\study_new\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DB7783-2BB7-4EA9-9E61-DDEF53BF7AC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="244">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,13 +575,431 @@
   </si>
   <si>
     <t>이합집산, 헤어졌다가 모였다가 하는 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍蛇飛騰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫蛇添足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>針小棒大</t>
+  </si>
+  <si>
+    <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로지르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값나가다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낯설다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본받다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이리저리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아가다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벗어나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성어, 통사적 합성어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오르내리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우짖다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰놀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼록거울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뾰족구두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산들바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피땀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성어, 비통사적 합성어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곧잘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길짐승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짐승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫사랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서릿발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생겨나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹을거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리나라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡아먹히다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>되돌리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공부하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋사랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단팥죽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끗발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늦더위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늦가을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값어치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파생어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺾쇠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얽매다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검붉다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덮밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부슬비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높푸르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스며들다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성어, 통사적 합성어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새빨갛다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짙푸르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젊은이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로막다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘들다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아오다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굳세다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤낮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굶주리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파생어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파생어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보살피다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점쟁이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덮개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넓이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군것질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹히다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거멓다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨손</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시누이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗나가다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새파랗다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개살구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헛웃음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지우개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건어물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손짓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성어, 통사적 합성어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,7 +1050,18 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -908,11 +1336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67:D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1802,8 +2230,1327 @@
         <v>137</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>175</v>
+      </c>
+      <c r="B94" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>182</v>
+      </c>
+      <c r="B101" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" t="s">
+        <v>195</v>
+      </c>
+      <c r="C105" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>187</v>
+      </c>
+      <c r="B106" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>188</v>
+      </c>
+      <c r="B107" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" t="s">
+        <v>195</v>
+      </c>
+      <c r="C108" t="s">
+        <v>145</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109" t="s">
+        <v>195</v>
+      </c>
+      <c r="C109" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>191</v>
+      </c>
+      <c r="B110" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>194</v>
+      </c>
+      <c r="B113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C113" t="s">
+        <v>145</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" t="s">
+        <v>145</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>197</v>
+      </c>
+      <c r="B115" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" t="s">
+        <v>145</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" t="s">
+        <v>166</v>
+      </c>
+      <c r="C116" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" t="s">
+        <v>166</v>
+      </c>
+      <c r="C117" t="s">
+        <v>145</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" t="s">
+        <v>166</v>
+      </c>
+      <c r="C118" t="s">
+        <v>145</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" t="s">
+        <v>145</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>202</v>
+      </c>
+      <c r="B120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120" t="s">
+        <v>145</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>203</v>
+      </c>
+      <c r="B121" t="s">
+        <v>204</v>
+      </c>
+      <c r="C121" t="s">
+        <v>145</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>205</v>
+      </c>
+      <c r="B122" t="s">
+        <v>195</v>
+      </c>
+      <c r="C122" t="s">
+        <v>145</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>207</v>
+      </c>
+      <c r="B124" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124" t="s">
+        <v>145</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" t="s">
+        <v>145</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>209</v>
+      </c>
+      <c r="B126" t="s">
+        <v>204</v>
+      </c>
+      <c r="C126" t="s">
+        <v>145</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" t="s">
+        <v>145</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>211</v>
+      </c>
+      <c r="B128" t="s">
+        <v>166</v>
+      </c>
+      <c r="C128" t="s">
+        <v>145</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>212</v>
+      </c>
+      <c r="B129" t="s">
+        <v>204</v>
+      </c>
+      <c r="C129" t="s">
+        <v>145</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>213</v>
+      </c>
+      <c r="B130" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130" t="s">
+        <v>145</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" t="s">
+        <v>145</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>215</v>
+      </c>
+      <c r="B132" t="s">
+        <v>166</v>
+      </c>
+      <c r="C132" t="s">
+        <v>145</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>216</v>
+      </c>
+      <c r="B133" t="s">
+        <v>217</v>
+      </c>
+      <c r="C133" t="s">
+        <v>145</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>218</v>
+      </c>
+      <c r="B134" t="s">
+        <v>219</v>
+      </c>
+      <c r="C134" t="s">
+        <v>145</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135" t="s">
+        <v>195</v>
+      </c>
+      <c r="C135" t="s">
+        <v>145</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>221</v>
+      </c>
+      <c r="B136" t="s">
+        <v>166</v>
+      </c>
+      <c r="C136" t="s">
+        <v>145</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" t="s">
+        <v>195</v>
+      </c>
+      <c r="C137" t="s">
+        <v>145</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>223</v>
+      </c>
+      <c r="B138" t="s">
+        <v>195</v>
+      </c>
+      <c r="C138" t="s">
+        <v>145</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>224</v>
+      </c>
+      <c r="B139" t="s">
+        <v>195</v>
+      </c>
+      <c r="C139" t="s">
+        <v>145</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>225</v>
+      </c>
+      <c r="B140" t="s">
+        <v>195</v>
+      </c>
+      <c r="C140" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>226</v>
+      </c>
+      <c r="B141" t="s">
+        <v>195</v>
+      </c>
+      <c r="C141" t="s">
+        <v>145</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>227</v>
+      </c>
+      <c r="B142" t="s">
+        <v>195</v>
+      </c>
+      <c r="C142" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>228</v>
+      </c>
+      <c r="B143" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" t="s">
+        <v>145</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>229</v>
+      </c>
+      <c r="B144" t="s">
+        <v>195</v>
+      </c>
+      <c r="C144" t="s">
+        <v>145</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>230</v>
+      </c>
+      <c r="B145" t="s">
+        <v>195</v>
+      </c>
+      <c r="C145" t="s">
+        <v>145</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>231</v>
+      </c>
+      <c r="B146" t="s">
+        <v>195</v>
+      </c>
+      <c r="C146" t="s">
+        <v>145</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" t="s">
+        <v>195</v>
+      </c>
+      <c r="C147" t="s">
+        <v>145</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>233</v>
+      </c>
+      <c r="B148" t="s">
+        <v>195</v>
+      </c>
+      <c r="C148" t="s">
+        <v>145</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>234</v>
+      </c>
+      <c r="B149" t="s">
+        <v>195</v>
+      </c>
+      <c r="C149" t="s">
+        <v>145</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>235</v>
+      </c>
+      <c r="B150" t="s">
+        <v>195</v>
+      </c>
+      <c r="C150" t="s">
+        <v>145</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>236</v>
+      </c>
+      <c r="B151" t="s">
+        <v>195</v>
+      </c>
+      <c r="C151" t="s">
+        <v>145</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>237</v>
+      </c>
+      <c r="B152" t="s">
+        <v>195</v>
+      </c>
+      <c r="C152" t="s">
+        <v>145</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>238</v>
+      </c>
+      <c r="B153" t="s">
+        <v>195</v>
+      </c>
+      <c r="C153" t="s">
+        <v>145</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>239</v>
+      </c>
+      <c r="B154" t="s">
+        <v>195</v>
+      </c>
+      <c r="C154" t="s">
+        <v>145</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>240</v>
+      </c>
+      <c r="B155" t="s">
+        <v>195</v>
+      </c>
+      <c r="C155" t="s">
+        <v>145</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>241</v>
+      </c>
+      <c r="B156" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156" t="s">
+        <v>145</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>242</v>
+      </c>
+      <c r="B157" t="s">
+        <v>243</v>
+      </c>
+      <c r="C157" t="s">
+        <v>145</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/학습자료/단답형/국어_기출의지혜.xlsx
+++ b/학습자료/단답형/국어_기출의지혜.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="272">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -994,6 +994,91 @@
   <si>
     <t>합성어, 통사적 합성어</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복합어_분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비지땀</t>
+  </si>
+  <si>
+    <t>사랑채</t>
+  </si>
+  <si>
+    <t>쌍동밤</t>
+  </si>
+  <si>
+    <t>장작불</t>
+  </si>
+  <si>
+    <t>돌보다</t>
+  </si>
+  <si>
+    <t>강추위</t>
+  </si>
+  <si>
+    <t>날강도</t>
+  </si>
+  <si>
+    <t>짓누르다</t>
+  </si>
+  <si>
+    <t>온갓</t>
+  </si>
+  <si>
+    <t>게을러빠지다</t>
+  </si>
+  <si>
+    <t>끝내</t>
+  </si>
+  <si>
+    <t>참꽃</t>
+  </si>
+  <si>
+    <t>한겨울</t>
+  </si>
+  <si>
+    <t>들개</t>
+  </si>
+  <si>
+    <t>움직이다</t>
+  </si>
+  <si>
+    <t>한낮</t>
+  </si>
+  <si>
+    <t>어느덧</t>
+  </si>
+  <si>
+    <t>들쑤시다</t>
+  </si>
+  <si>
+    <t>마음껏</t>
+  </si>
+  <si>
+    <t>불호령</t>
+  </si>
+  <si>
+    <t>여남은</t>
+  </si>
+  <si>
+    <t>마중</t>
+  </si>
+  <si>
+    <t>인간</t>
+  </si>
+  <si>
+    <t>한국인</t>
+  </si>
+  <si>
+    <t>까막까치</t>
+  </si>
+  <si>
+    <t>합성어</t>
+  </si>
+  <si>
+    <t>파생어</t>
   </si>
 </sst>
 </file>
@@ -1337,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67:D157"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A185" activeCellId="3" sqref="A179:XFD179 A180:XFD180 A182:XFD182 A185:XFD185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1709,7 +1794,7 @@
         <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1723,7 +1808,7 @@
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1737,7 +1822,7 @@
         <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1751,7 +1836,7 @@
         <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1765,7 +1850,7 @@
         <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,7 +1864,7 @@
         <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1793,7 +1878,7 @@
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1807,7 +1892,7 @@
         <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1821,7 +1906,7 @@
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1835,7 +1920,7 @@
         <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1849,7 +1934,7 @@
         <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1863,7 +1948,7 @@
         <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1877,7 +1962,7 @@
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1891,7 +1976,7 @@
         <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1905,7 +1990,7 @@
         <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1919,7 +2004,7 @@
         <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1933,7 +2018,7 @@
         <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1947,7 +2032,7 @@
         <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1961,7 +2046,7 @@
         <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1975,7 +2060,7 @@
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1989,7 +2074,7 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2003,7 +2088,7 @@
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2017,7 +2102,7 @@
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2031,7 +2116,7 @@
         <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2045,7 +2130,7 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2059,7 +2144,7 @@
         <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2073,7 +2158,7 @@
         <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2087,7 +2172,7 @@
         <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2101,7 +2186,7 @@
         <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3543,6 +3628,356 @@
         <v>145</v>
       </c>
       <c r="D157" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>245</v>
+      </c>
+      <c r="B158" t="s">
+        <v>270</v>
+      </c>
+      <c r="C158" t="s">
+        <v>145</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>246</v>
+      </c>
+      <c r="B159" t="s">
+        <v>270</v>
+      </c>
+      <c r="C159" t="s">
+        <v>145</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>247</v>
+      </c>
+      <c r="B160" t="s">
+        <v>270</v>
+      </c>
+      <c r="C160" t="s">
+        <v>145</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>248</v>
+      </c>
+      <c r="B161" t="s">
+        <v>270</v>
+      </c>
+      <c r="C161" t="s">
+        <v>145</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>249</v>
+      </c>
+      <c r="B162" t="s">
+        <v>270</v>
+      </c>
+      <c r="C162" t="s">
+        <v>145</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>250</v>
+      </c>
+      <c r="B163" t="s">
+        <v>271</v>
+      </c>
+      <c r="C163" t="s">
+        <v>145</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>251</v>
+      </c>
+      <c r="B164" t="s">
+        <v>271</v>
+      </c>
+      <c r="C164" t="s">
+        <v>145</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>252</v>
+      </c>
+      <c r="B165" t="s">
+        <v>271</v>
+      </c>
+      <c r="C165" t="s">
+        <v>145</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>253</v>
+      </c>
+      <c r="B166" t="s">
+        <v>270</v>
+      </c>
+      <c r="C166" t="s">
+        <v>145</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>254</v>
+      </c>
+      <c r="B167" t="s">
+        <v>270</v>
+      </c>
+      <c r="C167" t="s">
+        <v>145</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>255</v>
+      </c>
+      <c r="B168" t="s">
+        <v>271</v>
+      </c>
+      <c r="C168" t="s">
+        <v>145</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>256</v>
+      </c>
+      <c r="B169" t="s">
+        <v>271</v>
+      </c>
+      <c r="C169" t="s">
+        <v>145</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>257</v>
+      </c>
+      <c r="B170" t="s">
+        <v>271</v>
+      </c>
+      <c r="C170" t="s">
+        <v>145</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>258</v>
+      </c>
+      <c r="B171" t="s">
+        <v>271</v>
+      </c>
+      <c r="C171" t="s">
+        <v>145</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>259</v>
+      </c>
+      <c r="B172" t="s">
+        <v>271</v>
+      </c>
+      <c r="C172" t="s">
+        <v>145</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>260</v>
+      </c>
+      <c r="B173" t="s">
+        <v>271</v>
+      </c>
+      <c r="C173" t="s">
+        <v>145</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>261</v>
+      </c>
+      <c r="B174" t="s">
+        <v>270</v>
+      </c>
+      <c r="C174" t="s">
+        <v>145</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>262</v>
+      </c>
+      <c r="B175" t="s">
+        <v>271</v>
+      </c>
+      <c r="C175" t="s">
+        <v>145</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>263</v>
+      </c>
+      <c r="B176" t="s">
+        <v>271</v>
+      </c>
+      <c r="C176" t="s">
+        <v>145</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>264</v>
+      </c>
+      <c r="B177" t="s">
+        <v>271</v>
+      </c>
+      <c r="C177" t="s">
+        <v>145</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>265</v>
+      </c>
+      <c r="B178" t="s">
+        <v>270</v>
+      </c>
+      <c r="C178" t="s">
+        <v>145</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>266</v>
+      </c>
+      <c r="B179" t="s">
+        <v>271</v>
+      </c>
+      <c r="C179" t="s">
+        <v>145</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>267</v>
+      </c>
+      <c r="B180" t="s">
+        <v>270</v>
+      </c>
+      <c r="C180" t="s">
+        <v>145</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>268</v>
+      </c>
+      <c r="B181" t="s">
+        <v>271</v>
+      </c>
+      <c r="C181" t="s">
+        <v>145</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>269</v>
+      </c>
+      <c r="B182" t="s">
+        <v>270</v>
+      </c>
+      <c r="C182" t="s">
+        <v>145</v>
+      </c>
+      <c r="D182" t="s">
         <v>64</v>
       </c>
     </row>

--- a/학습자료/단답형/국어_기출의지혜.xlsx
+++ b/학습자료/단답형/국어_기출의지혜.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="379">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1079,13 +1079,449 @@
   </si>
   <si>
     <t>파생어</t>
+  </si>
+  <si>
+    <t>보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報告</t>
+  </si>
+  <si>
+    <t>體系的</t>
+  </si>
+  <si>
+    <t>체계적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬馬之誠</t>
+  </si>
+  <si>
+    <t>견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자성어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명지바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보드랍고 화창한 바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늬바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서쪽에서 부는 바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높새바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反哺之孝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자성어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>間於齊楚</t>
+  </si>
+  <si>
+    <r>
+      <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓋世之才</t>
+  </si>
+  <si>
+    <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲折</t>
+  </si>
+  <si>
+    <t>곡절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初有</t>
+  </si>
+  <si>
+    <t>초유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序幕</t>
+  </si>
+  <si>
+    <t>서막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敎養</t>
+  </si>
+  <si>
+    <t>교양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理論</t>
+  </si>
+  <si>
+    <t>이론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儒敎</t>
+  </si>
+  <si>
+    <t>유교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學問</t>
+  </si>
+  <si>
+    <t>학문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受容</t>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일.
+2. [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만수받이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤똑똑이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레바리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건.
+2. 마음씨가 바르지 못한 사람을 비유적으로 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오그랑이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신문로(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신문노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남대문로(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남대문노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추진녁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장마삐, 장맏삐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예산닐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐닐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추진력(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장맛비(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등불(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콧날(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예삿일(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회수, 훼수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리말/꼬릿말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이시옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사말/인삿말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리말/머릿말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예사말/예삿말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회쑤, 홷쑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침빱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노래말/노랫말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼자말/혼잣말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존대말/존댓말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼사말/혼삿말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본디말/본딧말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨래쭐, 빨랟쭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피어, 피여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>되어, 되여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이오, 이요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니오, 아니요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집일(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리말(발음)</t>
+  </si>
+  <si>
+    <t>꼬리말(발음)</t>
+  </si>
+  <si>
+    <t>고무줄(발음)</t>
+  </si>
+  <si>
+    <t>동아줄(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사말(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨랫줄(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횟수(回數)(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침밥(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피어(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>되어(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이오(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니오(발음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사말,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리말,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리말,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고무줄,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아줄,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩밥,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회수(回收)(발음)</t>
+  </si>
+  <si>
+    <t>콩밥(발음)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,6 +1535,14 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1135,7 +1579,17 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1422,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A185" activeCellId="3" sqref="A179:XFD179 A180:XFD180 A182:XFD182 A185:XFD185"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3981,10 +4435,755 @@
         <v>64</v>
       </c>
     </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>274</v>
+      </c>
+      <c r="B183" t="s">
+        <v>272</v>
+      </c>
+      <c r="C183" t="s">
+        <v>145</v>
+      </c>
+      <c r="D183" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>275</v>
+      </c>
+      <c r="B184" t="s">
+        <v>276</v>
+      </c>
+      <c r="C184" t="s">
+        <v>145</v>
+      </c>
+      <c r="D184" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>277</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C185" t="s">
+        <v>145</v>
+      </c>
+      <c r="D185" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>281</v>
+      </c>
+      <c r="B186" t="s">
+        <v>282</v>
+      </c>
+      <c r="C186" t="s">
+        <v>145</v>
+      </c>
+      <c r="D186" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>283</v>
+      </c>
+      <c r="B187" t="s">
+        <v>284</v>
+      </c>
+      <c r="C187" t="s">
+        <v>145</v>
+      </c>
+      <c r="D187" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>285</v>
+      </c>
+      <c r="B188" t="s">
+        <v>286</v>
+      </c>
+      <c r="C188" t="s">
+        <v>145</v>
+      </c>
+      <c r="D188" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>287</v>
+      </c>
+      <c r="B189" t="s">
+        <v>288</v>
+      </c>
+      <c r="C189" t="s">
+        <v>145</v>
+      </c>
+      <c r="D189" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>289</v>
+      </c>
+      <c r="B190" t="s">
+        <v>290</v>
+      </c>
+      <c r="C190" t="s">
+        <v>145</v>
+      </c>
+      <c r="D190" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>295</v>
+      </c>
+      <c r="B191" t="s">
+        <v>296</v>
+      </c>
+      <c r="C191" t="s">
+        <v>145</v>
+      </c>
+      <c r="D191" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>297</v>
+      </c>
+      <c r="B192" t="s">
+        <v>298</v>
+      </c>
+      <c r="C192" t="s">
+        <v>145</v>
+      </c>
+      <c r="D192" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>299</v>
+      </c>
+      <c r="B193" t="s">
+        <v>300</v>
+      </c>
+      <c r="C193" t="s">
+        <v>145</v>
+      </c>
+      <c r="D193" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>301</v>
+      </c>
+      <c r="B194" t="s">
+        <v>302</v>
+      </c>
+      <c r="C194" t="s">
+        <v>145</v>
+      </c>
+      <c r="D194" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>303</v>
+      </c>
+      <c r="B195" t="s">
+        <v>304</v>
+      </c>
+      <c r="C195" t="s">
+        <v>145</v>
+      </c>
+      <c r="D195" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>305</v>
+      </c>
+      <c r="B196" t="s">
+        <v>306</v>
+      </c>
+      <c r="C196" t="s">
+        <v>145</v>
+      </c>
+      <c r="D196" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>307</v>
+      </c>
+      <c r="B197" t="s">
+        <v>308</v>
+      </c>
+      <c r="C197" t="s">
+        <v>145</v>
+      </c>
+      <c r="D197" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>309</v>
+      </c>
+      <c r="B198" t="s">
+        <v>310</v>
+      </c>
+      <c r="C198" t="s">
+        <v>145</v>
+      </c>
+      <c r="D198" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>311</v>
+      </c>
+      <c r="B199" t="s">
+        <v>312</v>
+      </c>
+      <c r="C199" t="s">
+        <v>145</v>
+      </c>
+      <c r="D199" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>313</v>
+      </c>
+      <c r="B200" t="s">
+        <v>314</v>
+      </c>
+      <c r="C200" t="s">
+        <v>145</v>
+      </c>
+      <c r="D200" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B201" t="s">
+        <v>316</v>
+      </c>
+      <c r="C201" t="s">
+        <v>145</v>
+      </c>
+      <c r="D201" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>317</v>
+      </c>
+      <c r="B202" t="s">
+        <v>318</v>
+      </c>
+      <c r="C202" t="s">
+        <v>145</v>
+      </c>
+      <c r="D202" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>319</v>
+      </c>
+      <c r="B203" t="s">
+        <v>320</v>
+      </c>
+      <c r="C203" t="s">
+        <v>145</v>
+      </c>
+      <c r="D203" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B204" t="s">
+        <v>322</v>
+      </c>
+      <c r="C204" t="s">
+        <v>145</v>
+      </c>
+      <c r="D204" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>323</v>
+      </c>
+      <c r="B205" t="s">
+        <v>324</v>
+      </c>
+      <c r="C205" t="s">
+        <v>325</v>
+      </c>
+      <c r="D205" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>327</v>
+      </c>
+      <c r="B206" t="s">
+        <v>328</v>
+      </c>
+      <c r="C206" t="s">
+        <v>325</v>
+      </c>
+      <c r="D206" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>335</v>
+      </c>
+      <c r="B207" t="s">
+        <v>329</v>
+      </c>
+      <c r="C207" t="s">
+        <v>325</v>
+      </c>
+      <c r="D207" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>336</v>
+      </c>
+      <c r="B208" t="s">
+        <v>330</v>
+      </c>
+      <c r="C208" t="s">
+        <v>325</v>
+      </c>
+      <c r="D208" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>337</v>
+      </c>
+      <c r="B209" t="s">
+        <v>331</v>
+      </c>
+      <c r="C209" t="s">
+        <v>325</v>
+      </c>
+      <c r="D209" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>338</v>
+      </c>
+      <c r="B210" t="s">
+        <v>332</v>
+      </c>
+      <c r="C210" t="s">
+        <v>325</v>
+      </c>
+      <c r="D210" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>339</v>
+      </c>
+      <c r="B211" t="s">
+        <v>333</v>
+      </c>
+      <c r="C211" t="s">
+        <v>325</v>
+      </c>
+      <c r="D211" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>358</v>
+      </c>
+      <c r="B212" t="s">
+        <v>334</v>
+      </c>
+      <c r="C212" t="s">
+        <v>325</v>
+      </c>
+      <c r="D212" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>363</v>
+      </c>
+      <c r="B213" t="s">
+        <v>371</v>
+      </c>
+      <c r="C213" t="s">
+        <v>325</v>
+      </c>
+      <c r="D213" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>359</v>
+      </c>
+      <c r="B214" t="s">
+        <v>372</v>
+      </c>
+      <c r="C214" t="s">
+        <v>325</v>
+      </c>
+      <c r="D214" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>360</v>
+      </c>
+      <c r="B215" t="s">
+        <v>373</v>
+      </c>
+      <c r="C215" t="s">
+        <v>325</v>
+      </c>
+      <c r="D215" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>361</v>
+      </c>
+      <c r="B216" t="s">
+        <v>374</v>
+      </c>
+      <c r="C216" t="s">
+        <v>325</v>
+      </c>
+      <c r="D216" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>362</v>
+      </c>
+      <c r="B217" t="s">
+        <v>375</v>
+      </c>
+      <c r="C217" t="s">
+        <v>325</v>
+      </c>
+      <c r="D217" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>377</v>
+      </c>
+      <c r="B218" t="s">
+        <v>340</v>
+      </c>
+      <c r="C218" t="s">
+        <v>325</v>
+      </c>
+      <c r="D218" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>378</v>
+      </c>
+      <c r="B219" t="s">
+        <v>376</v>
+      </c>
+      <c r="C219" t="s">
+        <v>325</v>
+      </c>
+      <c r="D219" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>343</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>325</v>
+      </c>
+      <c r="D220" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>344</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>325</v>
+      </c>
+      <c r="D221" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>341</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>325</v>
+      </c>
+      <c r="D222" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>345</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>325</v>
+      </c>
+      <c r="D223" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>348</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224" t="s">
+        <v>325</v>
+      </c>
+      <c r="D224" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>349</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="C225" t="s">
+        <v>325</v>
+      </c>
+      <c r="D225" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>350</v>
+      </c>
+      <c r="B226">
+        <v>2</v>
+      </c>
+      <c r="C226" t="s">
+        <v>325</v>
+      </c>
+      <c r="D226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>351</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227" t="s">
+        <v>325</v>
+      </c>
+      <c r="D227" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>352</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228" t="s">
+        <v>325</v>
+      </c>
+      <c r="D228" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>364</v>
+      </c>
+      <c r="B229" t="s">
+        <v>353</v>
+      </c>
+      <c r="C229" t="s">
+        <v>325</v>
+      </c>
+      <c r="D229" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>365</v>
+      </c>
+      <c r="B230" t="s">
+        <v>346</v>
+      </c>
+      <c r="C230" t="s">
+        <v>325</v>
+      </c>
+      <c r="D230" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>366</v>
+      </c>
+      <c r="B231" t="s">
+        <v>347</v>
+      </c>
+      <c r="C231" t="s">
+        <v>325</v>
+      </c>
+      <c r="D231" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>367</v>
+      </c>
+      <c r="B232" t="s">
+        <v>354</v>
+      </c>
+      <c r="C232" t="s">
+        <v>325</v>
+      </c>
+      <c r="D232" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>368</v>
+      </c>
+      <c r="B233" t="s">
+        <v>355</v>
+      </c>
+      <c r="C233" t="s">
+        <v>325</v>
+      </c>
+      <c r="D233" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>369</v>
+      </c>
+      <c r="B234" t="s">
+        <v>356</v>
+      </c>
+      <c r="C234" t="s">
+        <v>325</v>
+      </c>
+      <c r="D234" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>370</v>
+      </c>
+      <c r="B235" t="s">
+        <v>357</v>
+      </c>
+      <c r="C235" t="s">
+        <v>325</v>
+      </c>
+      <c r="D235" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B220:B228">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
